--- a/src/Results/article550_graph_fixed_3.xlsx
+++ b/src/Results/article550_graph_fixed_3.xlsx
@@ -50,11 +50,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -70,6 +71,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF0066B3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -120,12 +129,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -162,7 +175,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0066B3"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -208,15 +221,15 @@
   </sheetPr>
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J68" activeCellId="0" sqref="J68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.41"/>
@@ -1361,7 +1374,7 @@
         <f aca="false">AVERAGE(C42:C51)</f>
         <v>0.37186</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="2" t="n">
         <f aca="false">AVERAGE(E42:E51)</f>
         <v>0.4022551</v>
       </c>
